--- a/resultados_benchmark_01/rankingAbstract.xlsx
+++ b/resultados_benchmark_01/rankingAbstract.xlsx
@@ -115,15 +115,15 @@
     <t>Q24</t>
   </si>
   <si>
+    <t>Q12</t>
+  </si>
+  <si>
+    <t>Q28</t>
+  </si>
+  <si>
     <t>Q25</t>
   </si>
   <si>
-    <t>Q12</t>
-  </si>
-  <si>
-    <t>Q28</t>
-  </si>
-  <si>
     <t>a(0,4)</t>
   </si>
   <si>
@@ -208,13 +208,13 @@
     <t>a.b(1,4)</t>
   </si>
   <si>
+    <t>aorC</t>
+  </si>
+  <si>
+    <t>(a.b)(1,4)</t>
+  </si>
+  <si>
     <t>a.b(0,4)</t>
-  </si>
-  <si>
-    <t>aorC</t>
-  </si>
-  <si>
-    <t>(a.b)(1,4)</t>
   </si>
 </sst>
 </file>
@@ -616,7 +616,7 @@
         <v>6378</v>
       </c>
       <c r="E2" s="1">
-        <v>10.11348666666667</v>
+        <v>10.09071366666667</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -633,7 +633,7 @@
         <v>2126.444444444444</v>
       </c>
       <c r="E3" s="1">
-        <v>3.184598</v>
+        <v>3.537552555555555</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -650,7 +650,7 @@
         <v>1260.315789473684</v>
       </c>
       <c r="E4" s="1">
-        <v>1.827453578947368</v>
+        <v>1.852431263157895</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -667,7 +667,7 @@
         <v>434.9122807017544</v>
       </c>
       <c r="E5" s="1">
-        <v>0.6388744298245614</v>
+        <v>0.7061133947368421</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -684,7 +684,7 @@
         <v>206.3333333333333</v>
       </c>
       <c r="E6" s="1">
-        <v>0.2524701111111111</v>
+        <v>0.263824</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -701,7 +701,7 @@
         <v>51</v>
       </c>
       <c r="E7" s="1">
-        <v>0.07787614285714285</v>
+        <v>0.08537528571428572</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -718,7 +718,7 @@
         <v>32.66666666666666</v>
       </c>
       <c r="E8" s="1">
-        <v>0.1321491666666667</v>
+        <v>0.1392038888888889</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -735,7 +735,7 @@
         <v>26.30188679245283</v>
       </c>
       <c r="E9" s="1">
-        <v>0.04673052830188679</v>
+        <v>0.04273915094339622</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -752,7 +752,7 @@
         <v>22.92957746478873</v>
       </c>
       <c r="E10" s="1">
-        <v>0.04132261971830986</v>
+        <v>0.04023704225352113</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -769,7 +769,7 @@
         <v>18.375</v>
       </c>
       <c r="E11" s="1">
-        <v>0.0325020625</v>
+        <v>0.0306470625</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -786,7 +786,7 @@
         <v>14.734375</v>
       </c>
       <c r="E12" s="1">
-        <v>0.04790254687499999</v>
+        <v>0.04895778125</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -803,7 +803,7 @@
         <v>14.24074074074074</v>
       </c>
       <c r="E13" s="1">
-        <v>0.03383998148148148</v>
+        <v>0.03078127777777777</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -820,7 +820,7 @@
         <v>11.42028985507246</v>
       </c>
       <c r="E14" s="1">
-        <v>0.04349570289855072</v>
+        <v>0.03853122463768116</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -837,7 +837,7 @@
         <v>11.27777777777778</v>
       </c>
       <c r="E15" s="1">
-        <v>0.02630338888888889</v>
+        <v>0.02352074074074074</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -854,7 +854,7 @@
         <v>10.42105263157895</v>
       </c>
       <c r="E16" s="1">
-        <v>0.02882063157894737</v>
+        <v>0.0254058947368421</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -871,7 +871,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.0253488</v>
+        <v>0.02117793333333333</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -888,7 +888,7 @@
         <v>8.222222222222221</v>
       </c>
       <c r="E18" s="1">
-        <v>0.02705677777777778</v>
+        <v>0.02049638888888889</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -905,7 +905,7 @@
         <v>6.981818181818181</v>
       </c>
       <c r="E19" s="1">
-        <v>0.02397130909090909</v>
+        <v>0.02096738181818182</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -922,7 +922,7 @@
         <v>6.2</v>
       </c>
       <c r="E20" s="1">
-        <v>0.028968</v>
+        <v>0.0195446</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -939,7 +939,7 @@
         <v>4.789473684210527</v>
       </c>
       <c r="E21" s="1">
-        <v>0.021915</v>
+        <v>0.01790510526315789</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -956,7 +956,7 @@
         <v>3.5</v>
       </c>
       <c r="E22" s="1">
-        <v>0.030406</v>
+        <v>0.02791</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -973,7 +973,7 @@
         <v>3.058823529411764</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01842167647058823</v>
+        <v>0.01438791176470588</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -990,7 +990,7 @@
         <v>2.852941176470588</v>
       </c>
       <c r="E24" s="1">
-        <v>0.03692735294117647</v>
+        <v>0.03264229411764706</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1007,7 +1007,7 @@
         <v>2.5</v>
       </c>
       <c r="E25" s="1">
-        <v>0.0203139375</v>
+        <v>0.01667546875</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1024,7 +1024,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="E26" s="1">
-        <v>0.02322066666666667</v>
+        <v>0.01990366666666667</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1041,7 +1041,7 @@
         <v>1.03125</v>
       </c>
       <c r="E27" s="1">
-        <v>0.01512790625</v>
+        <v>0.01178971875</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1058,7 +1058,7 @@
         <v>0.6</v>
       </c>
       <c r="E28" s="1">
-        <v>0.013975</v>
+        <v>0.01090393333333333</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1075,7 +1075,7 @@
         <v>0.375</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01101425</v>
+        <v>0.009582749999999999</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>0.00869</v>
+        <v>0.008319944444444442</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01252994444444444</v>
+        <v>0.010064</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>0.0192855</v>
+        <v>0.009345124999999999</v>
       </c>
     </row>
   </sheetData>

--- a/resultados_benchmark_01/rankingAbstract.xlsx
+++ b/resultados_benchmark_01/rankingAbstract.xlsx
@@ -115,15 +115,15 @@
     <t>Q24</t>
   </si>
   <si>
+    <t>Q28</t>
+  </si>
+  <si>
+    <t>Q25</t>
+  </si>
+  <si>
     <t>Q12</t>
   </si>
   <si>
-    <t>Q28</t>
-  </si>
-  <si>
-    <t>Q25</t>
-  </si>
-  <si>
     <t>a(0,4)</t>
   </si>
   <si>
@@ -208,13 +208,13 @@
     <t>a.b(1,4)</t>
   </si>
   <si>
+    <t>(a.b)(1,4)</t>
+  </si>
+  <si>
+    <t>a.b(0,4)</t>
+  </si>
+  <si>
     <t>aorC</t>
-  </si>
-  <si>
-    <t>(a.b)(1,4)</t>
-  </si>
-  <si>
-    <t>a.b(0,4)</t>
   </si>
 </sst>
 </file>
@@ -616,7 +616,7 @@
         <v>6378</v>
       </c>
       <c r="E2" s="1">
-        <v>10.09071366666667</v>
+        <v>11.768983</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -633,7 +633,7 @@
         <v>2126.444444444444</v>
       </c>
       <c r="E3" s="1">
-        <v>3.537552555555555</v>
+        <v>3.296699333333333</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -650,7 +650,7 @@
         <v>1260.315789473684</v>
       </c>
       <c r="E4" s="1">
-        <v>1.852431263157895</v>
+        <v>2.102765947368421</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -667,7 +667,7 @@
         <v>434.9122807017544</v>
       </c>
       <c r="E5" s="1">
-        <v>0.7061133947368421</v>
+        <v>0.7388724605263159</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -684,7 +684,7 @@
         <v>206.3333333333333</v>
       </c>
       <c r="E6" s="1">
-        <v>0.263824</v>
+        <v>0.2553222777777778</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -701,7 +701,7 @@
         <v>51</v>
       </c>
       <c r="E7" s="1">
-        <v>0.08537528571428572</v>
+        <v>0.07518899999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -718,7 +718,7 @@
         <v>32.66666666666666</v>
       </c>
       <c r="E8" s="1">
-        <v>0.1392038888888889</v>
+        <v>0.1207753518518519</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -735,7 +735,7 @@
         <v>26.30188679245283</v>
       </c>
       <c r="E9" s="1">
-        <v>0.04273915094339622</v>
+        <v>0.0418287358490566</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -752,7 +752,7 @@
         <v>22.92957746478873</v>
       </c>
       <c r="E10" s="1">
-        <v>0.04023704225352113</v>
+        <v>0.04246888028169014</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -769,7 +769,7 @@
         <v>18.375</v>
       </c>
       <c r="E11" s="1">
-        <v>0.0306470625</v>
+        <v>0.034089</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -786,7 +786,7 @@
         <v>14.734375</v>
       </c>
       <c r="E12" s="1">
-        <v>0.04895778125</v>
+        <v>0.0481863125</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -803,7 +803,7 @@
         <v>14.24074074074074</v>
       </c>
       <c r="E13" s="1">
-        <v>0.03078127777777777</v>
+        <v>0.02936098148148148</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -820,7 +820,7 @@
         <v>11.42028985507246</v>
       </c>
       <c r="E14" s="1">
-        <v>0.03853122463768116</v>
+        <v>0.03793415942028985</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -837,7 +837,7 @@
         <v>11.27777777777778</v>
       </c>
       <c r="E15" s="1">
-        <v>0.02352074074074074</v>
+        <v>0.02528801851851852</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -854,7 +854,7 @@
         <v>10.42105263157895</v>
       </c>
       <c r="E16" s="1">
-        <v>0.0254058947368421</v>
+        <v>0.02641242105263157</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -871,7 +871,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.02117793333333333</v>
+        <v>0.0239746</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -888,7 +888,7 @@
         <v>8.222222222222221</v>
       </c>
       <c r="E18" s="1">
-        <v>0.02049638888888889</v>
+        <v>0.02636881481481481</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -905,7 +905,7 @@
         <v>6.981818181818181</v>
       </c>
       <c r="E19" s="1">
-        <v>0.02096738181818182</v>
+        <v>0.02341190909090909</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -922,7 +922,7 @@
         <v>6.2</v>
       </c>
       <c r="E20" s="1">
-        <v>0.0195446</v>
+        <v>0.02100593333333333</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -939,7 +939,7 @@
         <v>4.789473684210527</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01790510526315789</v>
+        <v>0.01991726315789474</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -956,7 +956,7 @@
         <v>3.5</v>
       </c>
       <c r="E22" s="1">
-        <v>0.02791</v>
+        <v>0.031461</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -973,7 +973,7 @@
         <v>3.058823529411764</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01438791176470588</v>
+        <v>0.01867697058823529</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -990,7 +990,7 @@
         <v>2.852941176470588</v>
       </c>
       <c r="E24" s="1">
-        <v>0.03264229411764706</v>
+        <v>0.0242429705882353</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1007,7 +1007,7 @@
         <v>2.5</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01667546875</v>
+        <v>0.01728271875</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1024,7 +1024,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01990366666666667</v>
+        <v>0.01981666666666667</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1041,7 +1041,7 @@
         <v>1.03125</v>
       </c>
       <c r="E27" s="1">
-        <v>0.01178971875</v>
+        <v>0.013892375</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1058,7 +1058,7 @@
         <v>0.6</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01090393333333333</v>
+        <v>0.016259</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1075,7 +1075,7 @@
         <v>0.375</v>
       </c>
       <c r="E29" s="1">
-        <v>0.009582749999999999</v>
+        <v>0.01404425</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>0.008319944444444442</v>
+        <v>0.009065500000000001</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>0.010064</v>
+        <v>0.0090045</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>0.009345124999999999</v>
+        <v>0.01332038888888889</v>
       </c>
     </row>
   </sheetData>
